--- a/.docs/data/Sites Objects Schemas REV7 ISSUED (NetSuite Actions).xlsx
+++ b/.docs/data/Sites Objects Schemas REV7 ISSUED (NetSuite Actions).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SITE Fields" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,6 @@
     <sheet name="LOCK Fields" sheetId="5" r:id="rId5"/>
     <sheet name="LOCK Fields NS" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SITE Fields'!$A$1:$K$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'INFRASTRUCTURE Fields'!$A$1:$M$93</definedName>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="592">
   <si>
     <t>SITE Field Name</t>
   </si>
@@ -1838,7 +1835,7 @@
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,21 +1845,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2014,7 +1996,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2047,25 +2029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2426,270 +2390,248 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2731,17 +2673,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2749,7 +2682,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2764,16 +2703,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2782,13 +2718,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2797,16 +2733,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3087,55 +3023,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SITE Fields"/>
-      <sheetName val="LOCK Fields"/>
-      <sheetName val="INFRASTRUCTURE Fields"/>
-      <sheetName val="INSPECTION Fields"/>
-      <sheetName val="FACILITIES SERVICE Fields"/>
-      <sheetName val="GENERATOR Service Fields"/>
-      <sheetName val="E&amp;LP SERVICE Fields"/>
-      <sheetName val="AWL Fields"/>
-      <sheetName val="POWER SUPPLY Fields"/>
-      <sheetName val="POWER USER Fields"/>
-      <sheetName val="POWER READING Fields"/>
-      <sheetName val="POWER BILL Fields"/>
-      <sheetName val="PLANNING Fields"/>
-      <sheetName val="Local Authority List"/>
-      <sheetName val="LAND Fields"/>
-      <sheetName val="ROW Fields"/>
-      <sheetName val="CAPACITY REVIEW Fields"/>
-      <sheetName val="CUSTOMER PRESENCE Fields "/>
-      <sheetName val="Tower Family List"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -3393,33 +3280,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="8" tint="0.399975585192419"/>
   </sheetPr>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.0571428571429" style="47" customWidth="1"/>
-    <col min="2" max="4" width="42.7142857142857" style="47" customWidth="1"/>
-    <col min="5" max="5" width="14.6" style="47" customWidth="1"/>
-    <col min="6" max="6" width="14.1238095238095" style="48" customWidth="1"/>
-    <col min="7" max="7" width="13.0095238095238" style="49" customWidth="1"/>
-    <col min="8" max="8" width="21.1047619047619" style="50" customWidth="1"/>
-    <col min="9" max="9" width="34.7619047619048" style="50" customWidth="1"/>
-    <col min="10" max="10" width="62.0380952380952" style="51" customWidth="1"/>
-    <col min="11" max="11" width="66.1238095238095" style="51" customWidth="1"/>
-    <col min="12" max="16384" width="10.447619047619" style="47"/>
+    <col min="1" max="1" width="53.0571428571429" style="39" customWidth="1"/>
+    <col min="2" max="4" width="42.7142857142857" style="39" customWidth="1"/>
+    <col min="5" max="5" width="14.6" style="39" customWidth="1"/>
+    <col min="6" max="6" width="14.1238095238095" style="40" customWidth="1"/>
+    <col min="7" max="7" width="13.0095238095238" style="41" customWidth="1"/>
+    <col min="8" max="8" width="21.1047619047619" style="42" customWidth="1"/>
+    <col min="9" max="9" width="34.7619047619048" style="42" customWidth="1"/>
+    <col min="10" max="10" width="62.0380952380952" style="43" customWidth="1"/>
+    <col min="11" max="11" width="66.1238095238095" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="10.447619047619" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" s="45" customFormat="1" ht="47.25" customHeight="1" spans="1:11">
-      <c r="A1" s="52" t="s">
+    <row r="1" s="37" customFormat="1" ht="47.25" customHeight="1" spans="1:11">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -3432,3354 +3319,3359 @@
         <v>3</v>
       </c>
       <c r="E1" s="8"/>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="56" t="s">
+    <row r="2" hidden="1" spans="1:11">
+      <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="56" t="str">
+      <c r="B2" s="48" t="str">
         <f>VLOOKUP(A2,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_radix_tbl_entry_no</v>
       </c>
-      <c r="C2" s="56" t="str">
+      <c r="C2" s="48" t="str">
         <f>VLOOKUP(B2,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Integer Number</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="56" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+    </row>
+    <row r="3" hidden="1" spans="1:11">
+      <c r="A3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56" t="str">
+      <c r="B3" s="48" t="str">
         <f>VLOOKUP(A3,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_id</v>
       </c>
-      <c r="C3" s="56" t="str">
+      <c r="C3" s="48" t="str">
         <f>VLOOKUP(B3,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="56" t="s">
+      <c r="J3" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="66"/>
+    </row>
+    <row r="4" hidden="1" spans="1:11">
+      <c r="A4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="56" t="str">
+      <c r="B4" s="48" t="str">
         <f>VLOOKUP(A4,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_name</v>
       </c>
-      <c r="C4" s="56" t="str">
+      <c r="C4" s="48" t="str">
         <f>VLOOKUP(B4,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="56" t="s">
+      <c r="J4" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:11">
+      <c r="A5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="56" t="str">
+      <c r="B5" s="48" t="str">
         <f>VLOOKUP(A5,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_alias</v>
       </c>
-      <c r="C5" s="56" t="str">
+      <c r="C5" s="48" t="str">
         <f>VLOOKUP(B5,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="56" t="s">
+      <c r="J5" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:11">
+      <c r="A6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="56" t="str">
+      <c r="B6" s="48" t="str">
         <f>VLOOKUP(A6,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_status</v>
       </c>
-      <c r="C6" s="56" t="str">
+      <c r="C6" s="48" t="str">
         <f>VLOOKUP(B6,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="56" t="s">
+      <c r="K6" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:11">
+      <c r="A7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="56" t="str">
+      <c r="B7" s="48" t="str">
         <f>VLOOKUP(A7,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_type</v>
       </c>
-      <c r="C7" s="56" t="str">
+      <c r="C7" s="48" t="str">
         <f>VLOOKUP(B7,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="56" t="s">
+      <c r="K7" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:11">
+      <c r="A8" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="56" t="str">
+      <c r="B8" s="48" t="str">
         <f>VLOOKUP(A8,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_multi_mast_sites</v>
       </c>
-      <c r="C8" s="56" t="str">
+      <c r="C8" s="48" t="str">
         <f>VLOOKUP(B8,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Check Box</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="56" t="s">
+      <c r="K8" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:11">
+      <c r="A9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="56" t="str">
+      <c r="B9" s="48" t="str">
         <f>VLOOKUP(A9,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_old_id</v>
       </c>
-      <c r="C9" s="56" t="str">
+      <c r="C9" s="48" t="str">
         <f>VLOOKUP(B9,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="30" spans="1:11">
-      <c r="A10" s="56" t="s">
+      <c r="J9" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="30" hidden="1" spans="1:11">
+      <c r="A10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="56" t="e">
+      <c r="B10" s="48" t="e">
         <f>VLOOKUP(A10,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C10" s="56" t="e">
+      <c r="C10" s="48" t="e">
         <f>VLOOKUP(B10,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="57" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="76" t="s">
+      <c r="J10" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="1:11">
-      <c r="A11" s="56" t="s">
+    <row r="11" ht="30" hidden="1" spans="1:11">
+      <c r="A11" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="56" t="e">
+      <c r="B11" s="48" t="e">
         <f>VLOOKUP(A11,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C11" s="56" t="e">
+      <c r="C11" s="48" t="e">
         <f>VLOOKUP(B11,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="57" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="76" t="s">
+      <c r="J11" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:11">
-      <c r="A12" s="56" t="s">
+    <row r="12" ht="30" hidden="1" spans="1:11">
+      <c r="A12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="56" t="e">
+      <c r="B12" s="48" t="e">
         <f>VLOOKUP(A12,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C12" s="56" t="e">
+      <c r="C12" s="48" t="e">
         <f>VLOOKUP(B12,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="57" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="76" t="s">
+      <c r="J12" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="56" t="s">
+    <row r="13" hidden="1" spans="1:11">
+      <c r="A13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="56" t="str">
+      <c r="B13" s="48" t="str">
         <f>VLOOKUP(A13,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_height_asl</v>
       </c>
-      <c r="C13" s="56" t="str">
+      <c r="C13" s="48" t="str">
         <f>VLOOKUP(B13,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Decimal Number</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="56" t="s">
+      <c r="J13" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:11">
+      <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="56" t="str">
+      <c r="B14" s="48" t="str">
         <f>VLOOKUP(A14,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_level</v>
       </c>
-      <c r="C14" s="56" t="str">
+      <c r="C14" s="48" t="str">
         <f>VLOOKUP(B14,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="56" t="s">
+      <c r="K14" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:11">
+      <c r="A15" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="56" t="str">
+      <c r="B15" s="48" t="str">
         <f>VLOOKUP(A15,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_portfolio</v>
       </c>
-      <c r="C15" s="56" t="str">
+      <c r="C15" s="48" t="str">
         <f>VLOOKUP(B15,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" s="46" customFormat="1" spans="1:11">
-      <c r="A16" s="61" t="s">
+    <row r="16" s="38" customFormat="1" hidden="1" spans="1:11">
+      <c r="A16" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="61" t="str">
+      <c r="B16" s="52" t="str">
         <f>VLOOKUP(A16,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_srf_status</v>
       </c>
-      <c r="C16" s="61" t="str">
+      <c r="C16" s="52" t="str">
         <f>VLOOKUP(B16,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="71" t="s">
+      <c r="I16" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="78" t="s">
+      <c r="J16" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="78" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" s="46" customFormat="1" ht="30" spans="1:11">
-      <c r="A17" s="61" t="s">
+      <c r="K16" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" s="38" customFormat="1" ht="30" hidden="1" spans="1:11">
+      <c r="A17" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="61" t="str">
+      <c r="B17" s="52" t="str">
         <f>VLOOKUP(A17,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_saf_status</v>
       </c>
-      <c r="C17" s="61" t="str">
+      <c r="C17" s="52" t="str">
         <f>VLOOKUP(B17,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61" t="s">
+      <c r="D17" s="52"/>
+      <c r="E17" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="78" t="s">
+      <c r="J17" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="78"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="56" t="s">
+      <c r="K17" s="68"/>
+    </row>
+    <row r="18" hidden="1" spans="1:11">
+      <c r="A18" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="56" t="str">
+      <c r="B18" s="48" t="str">
         <f>VLOOKUP(A18,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_public</v>
       </c>
-      <c r="C18" s="56" t="str">
+      <c r="C18" s="48" t="str">
         <f>VLOOKUP(B18,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="76" t="s">
+      <c r="J18" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:11">
-      <c r="A19" s="56" t="s">
+      <c r="K18" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="30" hidden="1" spans="1:11">
+      <c r="A19" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="56" t="str">
+      <c r="B19" s="48" t="str">
         <f>VLOOKUP(A19,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_bts_status</v>
       </c>
-      <c r="C19" s="56" t="str">
+      <c r="C19" s="48" t="str">
         <f>VLOOKUP(B19,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="76"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="56" t="s">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" hidden="1" spans="1:11">
+      <c r="A20" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="56" t="str">
+      <c r="B20" s="48" t="str">
         <f>VLOOKUP(A20,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_address</v>
       </c>
-      <c r="C20" s="56" t="str">
+      <c r="C20" s="48" t="str">
         <f>VLOOKUP(B20,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="76" t="s">
+      <c r="J20" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="56" t="s">
+    <row r="21" hidden="1" spans="1:11">
+      <c r="A21" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="56" t="str">
+      <c r="B21" s="48" t="str">
         <f>VLOOKUP(A21,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_address_zip</v>
       </c>
-      <c r="C21" s="56" t="str">
+      <c r="C21" s="48" t="str">
         <f>VLOOKUP(B21,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="76" t="s">
+      <c r="J21" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="28" t="s">
+    <row r="22" hidden="1" spans="1:11">
+      <c r="A22" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="28" t="str">
+      <c r="B22" s="26" t="str">
         <f>VLOOKUP(A22,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_what3words</v>
       </c>
-      <c r="C22" s="28" t="str">
+      <c r="C22" s="26" t="str">
         <f>VLOOKUP(B22,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="64" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="79"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="56" t="s">
+      <c r="J22" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="69"/>
+    </row>
+    <row r="23" hidden="1" spans="1:11">
+      <c r="A23" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="56" t="str">
+      <c r="B23" s="48" t="str">
         <f>VLOOKUP(A23,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_address_county</v>
       </c>
-      <c r="C23" s="56" t="str">
+      <c r="C23" s="48" t="str">
         <f>VLOOKUP(B23,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="56" t="s">
+      <c r="J23" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:11">
+      <c r="A24" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="56" t="str">
+      <c r="B24" s="48" t="str">
         <f>VLOOKUP(A24,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_easting</v>
       </c>
-      <c r="C24" s="56" t="str">
+      <c r="C24" s="48" t="str">
         <f>VLOOKUP(B24,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Decimal Number</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="80" t="s">
+      <c r="J24" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="56" t="s">
+    <row r="25" hidden="1" spans="1:11">
+      <c r="A25" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="56" t="str">
+      <c r="B25" s="48" t="str">
         <f>VLOOKUP(A25,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_northing</v>
       </c>
-      <c r="C25" s="56" t="str">
+      <c r="C25" s="48" t="str">
         <f>VLOOKUP(B25,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Decimal Number</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="80"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="56" t="s">
+      <c r="J25" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="70"/>
+    </row>
+    <row r="26" hidden="1" spans="1:11">
+      <c r="A26" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="56" t="str">
+      <c r="B26" s="48" t="str">
         <f>VLOOKUP(A26,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_longitude</v>
       </c>
-      <c r="C26" s="56" t="str">
+      <c r="C26" s="48" t="str">
         <f>VLOOKUP(B26,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Decimal Number</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57" t="s">
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="80"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="56" t="s">
+      <c r="J26" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="70"/>
+    </row>
+    <row r="27" hidden="1" spans="1:11">
+      <c r="A27" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="56" t="str">
+      <c r="B27" s="48" t="str">
         <f>VLOOKUP(A27,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_latitude</v>
       </c>
-      <c r="C27" s="56" t="str">
+      <c r="C27" s="48" t="str">
         <f>VLOOKUP(B27,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Decimal Number</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="80"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="56" t="s">
+      <c r="J27" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="70"/>
+    </row>
+    <row r="28" hidden="1" spans="1:11">
+      <c r="A28" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="56" t="str">
+      <c r="B28" s="48" t="str">
         <f>VLOOKUP(A28,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_saf_auto_approve</v>
       </c>
-      <c r="C28" s="56" t="str">
+      <c r="C28" s="48" t="str">
         <f>VLOOKUP(B28,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Check Box</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="76" t="s">
+      <c r="J28" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="56" t="s">
+      <c r="K28" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:11">
+      <c r="A29" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="56" t="str">
+      <c r="B29" s="48" t="str">
         <f>VLOOKUP(A29,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_track_type</v>
       </c>
-      <c r="C29" s="56" t="str">
+      <c r="C29" s="48" t="str">
         <f>VLOOKUP(B29,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57" t="s">
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="K29" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:11">
-      <c r="A30" s="56" t="s">
+      <c r="K29" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" customHeight="1" spans="1:11">
+      <c r="A30" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="56" t="str">
+      <c r="B30" s="48" t="str">
         <f>VLOOKUP(A30,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_easting_access</v>
       </c>
-      <c r="C30" s="56" t="str">
+      <c r="C30" s="48" t="str">
         <f>VLOOKUP(B30,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Decimal Number</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="59" t="s">
+      <c r="G30" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="J30" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="56" t="s">
+      <c r="J30" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:11">
+      <c r="A31" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="56" t="str">
+      <c r="B31" s="48" t="str">
         <f>VLOOKUP(A31,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_northing_access</v>
       </c>
-      <c r="C31" s="56" t="str">
+      <c r="C31" s="48" t="str">
         <f>VLOOKUP(B31,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Decimal Number</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="G31" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="56" t="s">
+      <c r="J31" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:11">
+      <c r="A32" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="56" t="str">
+      <c r="B32" s="48" t="str">
         <f>VLOOKUP(A32,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_longitude_access</v>
       </c>
-      <c r="C32" s="56" t="str">
+      <c r="C32" s="48" t="str">
         <f>VLOOKUP(B32,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Decimal Number</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57" t="s">
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="J32" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="56" t="s">
+      <c r="J32" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:11">
+      <c r="A33" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="56" t="str">
+      <c r="B33" s="48" t="str">
         <f>VLOOKUP(A33,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_latitude_access</v>
       </c>
-      <c r="C33" s="56" t="str">
+      <c r="C33" s="48" t="str">
         <f>VLOOKUP(B33,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Decimal Number</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="28" t="s">
+      <c r="J33" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:11">
+      <c r="A34" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="28" t="str">
+      <c r="B34" s="26" t="str">
         <f>VLOOKUP(A34,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_acc_wt3words</v>
       </c>
-      <c r="C34" s="28" t="str">
+      <c r="C34" s="26" t="str">
         <f>VLOOKUP(B34,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="64" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="66" t="s">
+      <c r="G34" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="66" t="s">
+      <c r="H34" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="I34" s="66" t="s">
+      <c r="I34" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="79"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="56" t="s">
+      <c r="J34" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="69"/>
+    </row>
+    <row r="35" hidden="1" spans="1:11">
+      <c r="A35" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="56" t="str">
+      <c r="B35" s="48" t="str">
         <f>VLOOKUP(A35,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_directions</v>
       </c>
-      <c r="C35" s="56" t="str">
+      <c r="C35" s="48" t="str">
         <f>VLOOKUP(B35,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Long Text</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57" t="s">
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="59" t="s">
+      <c r="G35" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="59" t="s">
+      <c r="I35" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="J35" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="56" t="s">
+      <c r="J35" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:11">
+      <c r="A36" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="56" t="str">
+      <c r="B36" s="48" t="str">
         <f>VLOOKUP(A36,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_instructions</v>
       </c>
-      <c r="C36" s="56" t="str">
+      <c r="C36" s="48" t="str">
         <f>VLOOKUP(B36,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Long Text</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57" t="s">
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="59" t="s">
+      <c r="H36" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="59" t="s">
+      <c r="I36" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="J36" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="56" t="s">
+      <c r="J36" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:11">
+      <c r="A37" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="56" t="str">
+      <c r="B37" s="48" t="str">
         <f>VLOOKUP(A37,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_tenant_card_req</v>
       </c>
-      <c r="C37" s="56" t="str">
+      <c r="C37" s="48" t="str">
         <f>VLOOKUP(B37,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Check Box</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57" t="s">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="59" t="s">
+      <c r="G37" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H37" s="59" t="s">
+      <c r="H37" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I37" s="59" t="s">
+      <c r="I37" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="76" t="s">
+      <c r="J37" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K37" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="56" t="s">
+      <c r="K37" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:11">
+      <c r="A38" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="56" t="str">
+      <c r="B38" s="48" t="str">
         <f>VLOOKUP(A38,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_4x4_req</v>
       </c>
-      <c r="C38" s="56" t="str">
+      <c r="C38" s="48" t="str">
         <f>VLOOKUP(B38,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Check Box</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="59" t="s">
+      <c r="G38" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="59" t="s">
+      <c r="I38" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="76" t="s">
+      <c r="J38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K38" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="56" t="s">
+      <c r="K38" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:11">
+      <c r="A39" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="56" t="str">
+      <c r="B39" s="48" t="str">
         <f>VLOOKUP(A39,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_parking_restr</v>
       </c>
-      <c r="C39" s="56" t="str">
+      <c r="C39" s="48" t="str">
         <f>VLOOKUP(B39,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="G39" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="59" t="s">
+      <c r="H39" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="59" t="s">
+      <c r="I39" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="56" t="s">
+      <c r="J39" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:11">
+      <c r="A40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="56" t="str">
+      <c r="B40" s="48" t="str">
         <f>VLOOKUP(A40,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_crane_mewp_access</v>
       </c>
-      <c r="C40" s="56" t="str">
+      <c r="C40" s="48" t="str">
         <f>VLOOKUP(B40,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Check Box</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57" t="s">
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="59" t="s">
+      <c r="H40" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I40" s="59" t="s">
+      <c r="I40" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J40" s="76" t="s">
+      <c r="J40" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K40" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="67" t="s">
+      <c r="K40" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:11">
+      <c r="A41" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="67" t="e">
+      <c r="B41" s="58" t="e">
         <f>VLOOKUP(A41,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C41" s="67" t="e">
+      <c r="C41" s="58" t="e">
         <f>VLOOKUP(B41,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D41" s="67" t="s">
+      <c r="D41" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="67"/>
-      <c r="F41" s="68" t="s">
+      <c r="E41" s="58"/>
+      <c r="F41" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="69" t="s">
+      <c r="G41" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="H41" s="69" t="s">
+      <c r="H41" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="69" t="s">
+      <c r="I41" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="81" t="s">
+      <c r="J41" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="K41" s="81" t="s">
+      <c r="K41" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="56" t="s">
+    <row r="42" hidden="1" spans="1:11">
+      <c r="A42" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="56" t="e">
+      <c r="B42" s="48" t="e">
         <f>VLOOKUP(A42,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C42" s="56" t="e">
+      <c r="C42" s="48" t="e">
         <f>VLOOKUP(B42,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="57" t="s">
+      <c r="E42" s="26"/>
+      <c r="F42" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="59" t="s">
+      <c r="G42" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I42" s="77" t="s">
+      <c r="I42" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="J42" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="76" t="s">
+      <c r="J42" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="66" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="56" t="s">
+    <row r="43" hidden="1" spans="1:11">
+      <c r="A43" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="56" t="str">
+      <c r="B43" s="48" t="str">
         <f>VLOOKUP(A43,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_safety_spl_notes</v>
       </c>
-      <c r="C43" s="56" t="str">
+      <c r="C43" s="48" t="str">
         <f>VLOOKUP(B43,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Long Text</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57" t="s">
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="59" t="s">
+      <c r="G43" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H43" s="59" t="s">
+      <c r="H43" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="59" t="s">
+      <c r="I43" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="J43" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="28" t="s">
+      <c r="J43" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:11">
+      <c r="A44" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="28" t="e">
+      <c r="B44" s="26" t="e">
         <f>VLOOKUP(A44,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C44" s="28" t="e">
+      <c r="C44" s="26" t="e">
         <f>VLOOKUP(B44,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="66" t="s">
+      <c r="E44" s="26"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="H44" s="66" t="s">
+      <c r="H44" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="I44" s="77" t="s">
+      <c r="I44" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="28" t="s">
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+    </row>
+    <row r="45" hidden="1" spans="1:11">
+      <c r="A45" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="28" t="e">
+      <c r="B45" s="26" t="e">
         <f>VLOOKUP(A45,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C45" s="28" t="e">
+      <c r="C45" s="26" t="e">
         <f>VLOOKUP(B45,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="66" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="H45" s="66" t="s">
+      <c r="H45" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="I45" s="77" t="s">
+      <c r="I45" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="67" t="s">
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+    </row>
+    <row r="46" hidden="1" spans="1:11">
+      <c r="A46" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="67" t="e">
+      <c r="B46" s="58" t="e">
         <f>VLOOKUP(A46,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C46" s="67" t="e">
+      <c r="C46" s="58" t="e">
         <f>VLOOKUP(B46,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D46" s="67" t="s">
+      <c r="D46" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68" t="s">
+      <c r="E46" s="58"/>
+      <c r="F46" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="70" t="s">
+      <c r="G46" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="H46" s="69" t="s">
+      <c r="H46" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="I46" s="69" t="s">
+      <c r="I46" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J46" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="81" t="s">
+      <c r="J46" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="67" t="s">
+    <row r="47" hidden="1" spans="1:11">
+      <c r="A47" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="67" t="e">
+      <c r="B47" s="58" t="e">
         <f>VLOOKUP(A47,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C47" s="67" t="e">
+      <c r="C47" s="58" t="e">
         <f>VLOOKUP(B47,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D47" s="67" t="s">
+      <c r="D47" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="68" t="s">
+      <c r="E47" s="58"/>
+      <c r="F47" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="70" t="s">
+      <c r="G47" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="H47" s="69" t="s">
+      <c r="H47" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="I47" s="69" t="s">
+      <c r="I47" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J47" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="81" t="s">
+      <c r="J47" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="67" t="s">
+    <row r="48" hidden="1" spans="1:11">
+      <c r="A48" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="67" t="e">
+      <c r="B48" s="58" t="e">
         <f>VLOOKUP(A48,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C48" s="67" t="e">
+      <c r="C48" s="58" t="e">
         <f>VLOOKUP(B48,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="68" t="s">
+      <c r="E48" s="58"/>
+      <c r="F48" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="70" t="s">
+      <c r="G48" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="69" t="s">
+      <c r="H48" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="69" t="s">
+      <c r="I48" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J48" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="81" t="s">
+      <c r="J48" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="67" t="s">
+    <row r="49" hidden="1" spans="1:11">
+      <c r="A49" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="67" t="e">
+      <c r="B49" s="58" t="e">
         <f>VLOOKUP(A49,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C49" s="67" t="e">
+      <c r="C49" s="58" t="e">
         <f>VLOOKUP(B49,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D49" s="67" t="s">
+      <c r="D49" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="68" t="s">
+      <c r="E49" s="58"/>
+      <c r="F49" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="70" t="s">
+      <c r="G49" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="H49" s="69" t="s">
+      <c r="H49" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="I49" s="69" t="s">
+      <c r="I49" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="J49" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="81" t="s">
+      <c r="J49" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="67" t="s">
+    <row r="50" hidden="1" spans="1:11">
+      <c r="A50" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="67" t="e">
+      <c r="B50" s="58" t="e">
         <f>VLOOKUP(A50,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C50" s="67" t="e">
+      <c r="C50" s="58" t="e">
         <f>VLOOKUP(B50,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="D50" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="68" t="s">
+      <c r="E50" s="58"/>
+      <c r="F50" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="70" t="s">
+      <c r="G50" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="69" t="s">
+      <c r="H50" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="I50" s="69" t="s">
+      <c r="I50" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="J50" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="81" t="s">
+      <c r="J50" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="67" t="s">
+    <row r="51" hidden="1" spans="1:11">
+      <c r="A51" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="67" t="e">
+      <c r="B51" s="58" t="e">
         <f>VLOOKUP(A51,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C51" s="67" t="e">
+      <c r="C51" s="58" t="e">
         <f>VLOOKUP(B51,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68" t="s">
+      <c r="E51" s="58"/>
+      <c r="F51" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="70" t="s">
+      <c r="G51" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="H51" s="69" t="s">
+      <c r="H51" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="69" t="s">
+      <c r="I51" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="J51" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="81" t="s">
+      <c r="J51" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="56" t="s">
+    <row r="52" hidden="1" spans="1:11">
+      <c r="A52" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="56" t="str">
+      <c r="B52" s="48" t="str">
         <f>VLOOKUP(A52,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_full_dmed_area_fncd</v>
       </c>
-      <c r="C52" s="56" t="str">
+      <c r="C52" s="48" t="str">
         <f>VLOOKUP(B52,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Check Box</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="57" t="s">
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="58" t="s">
+      <c r="G52" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="H52" s="59" t="s">
+      <c r="H52" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="I52" s="59" t="s">
+      <c r="I52" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="76" t="s">
+      <c r="J52" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K52" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="56" t="s">
+      <c r="K52" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="1:11">
+      <c r="A53" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="56" t="str">
+      <c r="B53" s="48" t="str">
         <f>VLOOKUP(A53,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_adj_grnd_space</v>
       </c>
-      <c r="C53" s="56" t="str">
+      <c r="C53" s="48" t="str">
         <f>VLOOKUP(B53,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Check Box</v>
       </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="57" t="s">
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="58" t="s">
+      <c r="G53" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="I53" s="59" t="s">
+      <c r="I53" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="76" t="s">
+      <c r="J53" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K53" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="56" t="s">
+      <c r="K53" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="1:11">
+      <c r="A54" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="56" t="str">
+      <c r="B54" s="48" t="str">
         <f>VLOOKUP(A54,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_adj_grnd_owner</v>
       </c>
-      <c r="C54" s="56" t="str">
+      <c r="C54" s="48" t="str">
         <f>VLOOKUP(B54,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="57" t="s">
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="58" t="s">
+      <c r="G54" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="H54" s="59" t="s">
+      <c r="H54" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="I54" s="59" t="s">
+      <c r="I54" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" ht="60" spans="1:11">
-      <c r="A55" s="56" t="s">
+      <c r="J54" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" ht="60" hidden="1" spans="1:11">
+      <c r="A55" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="56" t="str">
+      <c r="B55" s="48" t="str">
         <f>VLOOKUP(A55,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_perimeter_type</v>
       </c>
-      <c r="C55" s="56" t="str">
+      <c r="C55" s="48" t="str">
         <f>VLOOKUP(B55,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>List/Record</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="57" t="s">
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="58" t="s">
+      <c r="G55" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="H55" s="59" t="s">
+      <c r="H55" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="I55" s="59" t="s">
+      <c r="I55" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J55" s="76" t="s">
+      <c r="J55" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="K55" s="76" t="s">
+      <c r="K55" s="66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="56" t="s">
+    <row r="56" hidden="1" spans="1:11">
+      <c r="A56" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="56" t="str">
+      <c r="B56" s="48" t="str">
         <f>VLOOKUP(A56,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_fence_height_m</v>
       </c>
-      <c r="C56" s="56" t="str">
+      <c r="C56" s="48" t="str">
         <f>VLOOKUP(B56,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Integer Number</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57" t="s">
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="58" t="s">
+      <c r="G56" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="H56" s="59" t="s">
+      <c r="H56" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="I56" s="59" t="s">
+      <c r="I56" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J56" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" s="46" customFormat="1" spans="1:11">
-      <c r="A57" s="61" t="s">
+      <c r="J56" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" s="38" customFormat="1" hidden="1" spans="1:11">
+      <c r="A57" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="61" t="str">
+      <c r="B57" s="52" t="str">
         <f>VLOOKUP(A57,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_indep_pwr_supp</v>
       </c>
-      <c r="C57" s="61" t="str">
+      <c r="C57" s="52" t="str">
         <f>VLOOKUP(B57,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Integer Number</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61" t="s">
+      <c r="D57" s="52"/>
+      <c r="E57" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="62" t="s">
+      <c r="F57" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G57" s="63" t="s">
+      <c r="G57" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="H57" s="71" t="s">
+      <c r="H57" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="I57" s="71" t="s">
+      <c r="I57" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="J57" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="78" t="s">
+      <c r="J57" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="68" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="67" t="s">
+    <row r="58" hidden="1" spans="1:11">
+      <c r="A58" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="67" t="e">
+      <c r="B58" s="58" t="e">
         <f>VLOOKUP(A58,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C58" s="67" t="e">
+      <c r="C58" s="58" t="e">
         <f>VLOOKUP(B58,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D58" s="67" t="s">
+      <c r="D58" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="67"/>
-      <c r="F58" s="68" t="s">
+      <c r="E58" s="58"/>
+      <c r="F58" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="G58" s="70" t="s">
+      <c r="G58" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="H58" s="69" t="s">
+      <c r="H58" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="I58" s="69" t="s">
+      <c r="I58" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="J58" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="81" t="s">
+      <c r="J58" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" ht="30" spans="1:11">
-      <c r="A59" s="28" t="s">
+    <row r="59" ht="30" hidden="1" spans="1:11">
+      <c r="A59" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="28" t="e">
+      <c r="B59" s="26" t="e">
         <f>VLOOKUP(A59,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C59" s="28" t="e">
+      <c r="C59" s="26" t="e">
         <f>VLOOKUP(B59,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="57" t="s">
+      <c r="E59" s="26"/>
+      <c r="F59" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="58" t="s">
+      <c r="G59" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="H59" s="59" t="s">
+      <c r="H59" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="I59" s="77" t="s">
+      <c r="I59" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="J59" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="76" t="s">
+      <c r="J59" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" ht="30" spans="1:11">
-      <c r="A60" s="28" t="s">
+    <row r="60" ht="30" hidden="1" spans="1:11">
+      <c r="A60" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="28" t="e">
+      <c r="B60" s="26" t="e">
         <f>VLOOKUP(A60,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C60" s="28" t="e">
+      <c r="C60" s="26" t="e">
         <f>VLOOKUP(B60,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E60" s="28"/>
-      <c r="F60" s="72" t="s">
+      <c r="E60" s="26"/>
+      <c r="F60" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="G60" s="58" t="s">
+      <c r="G60" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="H60" s="59" t="s">
+      <c r="H60" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="I60" s="77" t="s">
+      <c r="I60" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="J60" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="76" t="s">
+      <c r="J60" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="56" t="s">
+    <row r="61" hidden="1" spans="1:11">
+      <c r="A61" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="56" t="str">
+      <c r="B61" s="48" t="str">
         <f>VLOOKUP(A61,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_nxt_gen_svc</v>
       </c>
-      <c r="C61" s="56" t="str">
+      <c r="C61" s="48" t="str">
         <f>VLOOKUP(B61,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Date</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="57" t="s">
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="G61" s="58" t="s">
+      <c r="G61" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H61" s="59" t="s">
+      <c r="H61" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="I61" s="59" t="s">
+      <c r="I61" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="J61" s="76"/>
-      <c r="K61" s="80" t="s">
+      <c r="J61" s="66"/>
+      <c r="K61" s="70" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="56" t="s">
+    <row r="62" hidden="1" spans="1:11">
+      <c r="A62" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="56" t="str">
+      <c r="B62" s="48" t="str">
         <f>VLOOKUP(A62,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_nxt_earth_lp_test</v>
       </c>
-      <c r="C62" s="56" t="str">
+      <c r="C62" s="48" t="str">
         <f>VLOOKUP(B62,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Date</v>
       </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57" t="s">
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="G62" s="58" t="s">
+      <c r="G62" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="I62" s="59" t="s">
+      <c r="I62" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-    </row>
-    <row r="63" ht="30" spans="1:11">
-      <c r="A63" s="28" t="s">
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+    </row>
+    <row r="63" ht="30" hidden="1" spans="1:11">
+      <c r="A63" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="28" t="e">
+      <c r="B63" s="26" t="e">
         <f>VLOOKUP(A63,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C63" s="28" t="e">
+      <c r="C63" s="26" t="e">
         <f>VLOOKUP(B63,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="57" t="s">
+      <c r="E63" s="26"/>
+      <c r="F63" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="G63" s="58" t="s">
+      <c r="G63" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H63" s="59" t="s">
+      <c r="H63" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="I63" s="77" t="s">
+      <c r="I63" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76" t="s">
+      <c r="J63" s="66"/>
+      <c r="K63" s="66" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" s="46" customFormat="1" spans="1:11">
-      <c r="A64" s="61" t="s">
+    <row r="64" s="38" customFormat="1" hidden="1" spans="1:11">
+      <c r="A64" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="61" t="str">
+      <c r="B64" s="52" t="str">
         <f>VLOOKUP(A64,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_nxt_str_insp_date</v>
       </c>
-      <c r="C64" s="61" t="str">
+      <c r="C64" s="52" t="str">
         <f>VLOOKUP(B64,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Date</v>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="73" t="s">
+      <c r="D64" s="52"/>
+      <c r="E64" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="74"/>
-      <c r="G64" s="63" t="s">
+      <c r="F64" s="64"/>
+      <c r="G64" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="H64" s="71" t="s">
+      <c r="H64" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I64" s="71" t="s">
+      <c r="I64" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="J64" s="78"/>
-      <c r="K64" s="82" t="s">
+      <c r="J64" s="68"/>
+      <c r="K64" s="72" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="65" s="46" customFormat="1" spans="1:11">
-      <c r="A65" s="61" t="s">
+    <row r="65" s="38" customFormat="1" hidden="1" spans="1:11">
+      <c r="A65" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="61" t="str">
+      <c r="B65" s="52" t="str">
         <f>VLOOKUP(A65,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_nxt_fall_cert_date</v>
       </c>
-      <c r="C65" s="61" t="str">
+      <c r="C65" s="52" t="str">
         <f>VLOOKUP(B65,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Date</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="73" t="s">
+      <c r="D65" s="52"/>
+      <c r="E65" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F65" s="74" t="s">
+      <c r="F65" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G65" s="63" t="s">
+      <c r="G65" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="H65" s="71" t="s">
+      <c r="H65" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I65" s="71" t="s">
+      <c r="I65" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="J65" s="78"/>
-      <c r="K65" s="83"/>
-    </row>
-    <row r="66" s="46" customFormat="1" spans="1:11">
-      <c r="A66" s="61" t="s">
+      <c r="J65" s="68"/>
+      <c r="K65" s="73"/>
+    </row>
+    <row r="66" s="38" customFormat="1" hidden="1" spans="1:11">
+      <c r="A66" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="61" t="str">
+      <c r="B66" s="52" t="str">
         <f>VLOOKUP(A66,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_nxt_twr_pnt_date</v>
       </c>
-      <c r="C66" s="61" t="str">
+      <c r="C66" s="52" t="str">
         <f>VLOOKUP(B66,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Date</v>
       </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="73" t="s">
+      <c r="D66" s="52"/>
+      <c r="E66" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="74" t="s">
+      <c r="F66" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G66" s="63" t="s">
+      <c r="G66" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="H66" s="71" t="s">
+      <c r="H66" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I66" s="71" t="s">
+      <c r="I66" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="J66" s="78"/>
-      <c r="K66" s="84"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="28" t="s">
+      <c r="J66" s="68"/>
+      <c r="K66" s="74"/>
+    </row>
+    <row r="67" hidden="1" spans="1:11">
+      <c r="A67" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="28" t="e">
+      <c r="B67" s="26" t="e">
         <f>VLOOKUP(A67,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C67" s="28" t="e">
+      <c r="C67" s="26" t="e">
         <f>VLOOKUP(B67,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="57" t="s">
+      <c r="E67" s="26"/>
+      <c r="F67" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="G67" s="58" t="s">
+      <c r="G67" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H67" s="59" t="s">
+      <c r="H67" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="I67" s="77" t="s">
+      <c r="I67" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="J67" s="76"/>
-      <c r="K67" s="76" t="s">
+      <c r="J67" s="66"/>
+      <c r="K67" s="66" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="56" t="s">
+    <row r="68" hidden="1" spans="1:11">
+      <c r="A68" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="56" t="str">
+      <c r="B68" s="48" t="str">
         <f>VLOOKUP(A68,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_nxt_aircon_svc_date</v>
       </c>
-      <c r="C68" s="56" t="str">
+      <c r="C68" s="48" t="str">
         <f>VLOOKUP(B68,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Date</v>
       </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="72" t="s">
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G68" s="58" t="s">
+      <c r="G68" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="59" t="s">
+      <c r="H68" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="I68" s="59" t="s">
+      <c r="I68" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="J68" s="76"/>
-      <c r="K68" s="80" t="s">
+      <c r="J68" s="66"/>
+      <c r="K68" s="70" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="56" t="s">
+    <row r="69" hidden="1" spans="1:11">
+      <c r="A69" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="56" t="str">
+      <c r="B69" s="48" t="str">
         <f>VLOOKUP(A69,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_nxt_fire_svc_date</v>
       </c>
-      <c r="C69" s="56" t="str">
+      <c r="C69" s="48" t="str">
         <f>VLOOKUP(B69,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Date</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="72" t="s">
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G69" s="58" t="s">
+      <c r="G69" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H69" s="59" t="s">
+      <c r="H69" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="I69" s="59" t="s">
+      <c r="I69" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="J69" s="76"/>
-      <c r="K69" s="80" t="s">
+      <c r="J69" s="66"/>
+      <c r="K69" s="70" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="56" t="s">
+    <row r="70" hidden="1" spans="1:11">
+      <c r="A70" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="56" t="str">
+      <c r="B70" s="48" t="str">
         <f>VLOOKUP(A70,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_nxt_alarm_svc_date</v>
       </c>
-      <c r="C70" s="56" t="str">
+      <c r="C70" s="48" t="str">
         <f>VLOOKUP(B70,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Date</v>
       </c>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="72" t="s">
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G70" s="58" t="s">
+      <c r="G70" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H70" s="59" t="s">
+      <c r="H70" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="I70" s="59" t="s">
+      <c r="I70" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="J70" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" s="80" t="s">
+      <c r="J70" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="70" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" ht="30" spans="1:11">
-      <c r="A71" s="28" t="s">
+    <row r="71" ht="30" hidden="1" spans="1:11">
+      <c r="A71" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="28" t="e">
+      <c r="B71" s="26" t="e">
         <f>VLOOKUP(A71,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C71" s="28" t="e">
+      <c r="C71" s="26" t="e">
         <f>VLOOKUP(B71,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="57" t="s">
+      <c r="E71" s="26"/>
+      <c r="F71" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="G71" s="58" t="s">
+      <c r="G71" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H71" s="59" t="s">
+      <c r="H71" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="I71" s="77" t="s">
+      <c r="I71" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="J71" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="76" t="s">
+      <c r="J71" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="66" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="56" t="s">
+    <row r="72" hidden="1" spans="1:11">
+      <c r="A72" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="B72" s="56" t="str">
+      <c r="B72" s="48" t="str">
         <f>VLOOKUP(A72,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_mktg_sts</v>
       </c>
-      <c r="C72" s="56" t="str">
+      <c r="C72" s="48" t="str">
         <f>VLOOKUP(B72,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Check Box</v>
       </c>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="57" t="s">
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G72" s="58" t="s">
+      <c r="G72" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H72" s="58" t="s">
+      <c r="H72" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="I72" s="59" t="s">
+      <c r="I72" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="76" t="s">
+      <c r="J72" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K72" s="82" t="s">
+      <c r="K72" s="72" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="61" t="s">
+      <c r="A73" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="61" t="e">
+      <c r="B73" s="52" t="e">
         <f>VLOOKUP(A73,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C73" s="61" t="e">
+      <c r="C73" s="52" t="e">
         <f>VLOOKUP(B73,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D73" s="73" t="s">
+      <c r="D73" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E73" s="73"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="58" t="s">
+      <c r="E73" s="27"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H73" s="59" t="s">
+      <c r="H73" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I73" s="59" t="s">
+      <c r="I73" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J73" s="76" t="s">
+      <c r="J73" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="K73" s="83"/>
+      <c r="K73" s="73"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="61" t="e">
+      <c r="B74" s="52" t="e">
         <f>VLOOKUP(A74,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C74" s="61" t="e">
+      <c r="C74" s="52" t="e">
         <f>VLOOKUP(B74,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D74" s="73" t="s">
+      <c r="D74" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E74" s="73"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="58" t="s">
+      <c r="E74" s="27"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H74" s="59" t="s">
+      <c r="H74" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I74" s="59" t="s">
+      <c r="I74" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J74" s="76" t="s">
+      <c r="J74" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="83"/>
+      <c r="K74" s="73"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="61" t="e">
+      <c r="B75" s="52" t="e">
         <f>VLOOKUP(A75,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C75" s="61" t="e">
+      <c r="C75" s="52" t="e">
         <f>VLOOKUP(B75,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D75" s="73" t="s">
+      <c r="D75" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="73"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="58" t="s">
+      <c r="E75" s="27"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H75" s="59" t="s">
+      <c r="H75" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I75" s="59" t="s">
+      <c r="I75" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="76"/>
-      <c r="K75" s="83"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="73"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="61" t="s">
+      <c r="A76" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="61" t="e">
+      <c r="B76" s="52" t="e">
         <f>VLOOKUP(A76,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C76" s="61" t="e">
+      <c r="C76" s="52" t="e">
         <f>VLOOKUP(B76,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D76" s="73" t="s">
+      <c r="D76" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E76" s="73"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="58" t="s">
+      <c r="E76" s="27"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H76" s="59" t="s">
+      <c r="H76" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I76" s="59" t="s">
+      <c r="I76" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J76" s="76" t="s">
+      <c r="J76" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K76" s="83"/>
+      <c r="K76" s="73"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="61" t="e">
+      <c r="B77" s="52" t="e">
         <f>VLOOKUP(A77,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C77" s="61" t="e">
+      <c r="C77" s="52" t="e">
         <f>VLOOKUP(B77,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D77" s="73" t="s">
+      <c r="D77" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E77" s="73"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="58" t="s">
+      <c r="E77" s="27"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H77" s="59" t="s">
+      <c r="H77" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I77" s="59" t="s">
+      <c r="I77" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J77" s="76"/>
-      <c r="K77" s="83"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="73"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="61" t="s">
+      <c r="A78" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B78" s="61" t="e">
+      <c r="B78" s="52" t="e">
         <f>VLOOKUP(A78,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C78" s="61" t="e">
+      <c r="C78" s="52" t="e">
         <f>VLOOKUP(B78,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D78" s="73" t="s">
+      <c r="D78" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E78" s="73"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="58" t="s">
+      <c r="E78" s="27"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H78" s="59" t="s">
+      <c r="H78" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I78" s="59" t="s">
+      <c r="I78" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J78" s="76" t="s">
+      <c r="J78" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K78" s="83"/>
+      <c r="K78" s="73"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="61" t="s">
+      <c r="A79" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="61" t="e">
+      <c r="B79" s="52" t="e">
         <f>VLOOKUP(A79,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C79" s="61" t="e">
+      <c r="C79" s="52" t="e">
         <f>VLOOKUP(B79,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D79" s="73" t="s">
+      <c r="D79" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E79" s="73"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="58" t="s">
+      <c r="E79" s="27"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H79" s="59" t="s">
+      <c r="H79" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I79" s="59" t="s">
+      <c r="I79" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J79" s="76" t="s">
+      <c r="J79" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K79" s="83"/>
+      <c r="K79" s="73"/>
     </row>
     <row r="80" ht="30" spans="1:11">
-      <c r="A80" s="61" t="s">
+      <c r="A80" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="61" t="e">
+      <c r="B80" s="52" t="e">
         <f>VLOOKUP(A80,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C80" s="61" t="e">
+      <c r="C80" s="52" t="e">
         <f>VLOOKUP(B80,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D80" s="73" t="s">
+      <c r="D80" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E80" s="73"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="58" t="s">
+      <c r="E80" s="27"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H80" s="59" t="s">
+      <c r="H80" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I80" s="59" t="s">
+      <c r="I80" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J80" s="76" t="s">
+      <c r="J80" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="K80" s="83"/>
+      <c r="K80" s="73"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="61" t="s">
+      <c r="A81" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="61" t="e">
+      <c r="B81" s="52" t="e">
         <f>VLOOKUP(A81,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C81" s="61" t="e">
+      <c r="C81" s="52" t="e">
         <f>VLOOKUP(B81,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D81" s="73" t="s">
+      <c r="D81" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="73"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="58" t="s">
+      <c r="E81" s="27"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H81" s="59" t="s">
+      <c r="H81" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I81" s="59" t="s">
+      <c r="I81" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="J81" s="76" t="s">
+      <c r="J81" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="K81" s="83"/>
+      <c r="K81" s="73"/>
     </row>
     <row r="82" ht="30" spans="1:11">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="B82" s="61" t="e">
+      <c r="B82" s="52" t="e">
         <f>VLOOKUP(A82,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C82" s="61" t="e">
+      <c r="C82" s="52" t="e">
         <f>VLOOKUP(B82,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D82" s="73" t="s">
+      <c r="D82" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E82" s="73"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="58" t="s">
+      <c r="E82" s="27"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H82" s="59" t="s">
+      <c r="H82" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I82" s="59" t="s">
+      <c r="I82" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="J82" s="76" t="s">
+      <c r="J82" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="83"/>
+      <c r="K82" s="73"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="61" t="s">
+      <c r="A83" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="B83" s="61" t="e">
+      <c r="B83" s="52" t="e">
         <f>VLOOKUP(A83,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C83" s="61" t="e">
+      <c r="C83" s="52" t="e">
         <f>VLOOKUP(B83,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D83" s="73" t="s">
+      <c r="D83" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="73"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="58" t="s">
+      <c r="E83" s="27"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H83" s="59" t="s">
+      <c r="H83" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I83" s="59" t="s">
+      <c r="I83" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J83" s="76"/>
-      <c r="K83" s="83"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="73"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="61" t="s">
+      <c r="A84" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="61" t="e">
+      <c r="B84" s="52" t="e">
         <f>VLOOKUP(A84,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C84" s="61" t="e">
+      <c r="C84" s="52" t="e">
         <f>VLOOKUP(B84,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D84" s="73" t="s">
+      <c r="D84" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="73"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="58" t="s">
+      <c r="E84" s="27"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H84" s="59" t="s">
+      <c r="H84" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I84" s="59" t="s">
+      <c r="I84" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J84" s="76" t="s">
+      <c r="J84" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="84"/>
-    </row>
-    <row r="85" ht="30" spans="1:11">
-      <c r="A85" s="28" t="s">
+      <c r="K84" s="74"/>
+    </row>
+    <row r="85" ht="30" hidden="1" spans="1:11">
+      <c r="A85" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B85" s="28" t="e">
+      <c r="B85" s="26" t="e">
         <f>VLOOKUP(A85,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C85" s="28" t="e">
+      <c r="C85" s="26" t="e">
         <f>VLOOKUP(B85,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E85" s="28"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="65" t="s">
+      <c r="E85" s="26"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="H85" s="66" t="s">
+      <c r="H85" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I85" s="77" t="s">
+      <c r="I85" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="J85" s="79"/>
-      <c r="K85" s="79"/>
-    </row>
-    <row r="86" ht="30" spans="1:11">
-      <c r="A86" s="67" t="s">
+      <c r="J85" s="69"/>
+      <c r="K85" s="69"/>
+    </row>
+    <row r="86" ht="30" hidden="1" spans="1:11">
+      <c r="A86" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="B86" s="67" t="e">
+      <c r="B86" s="58" t="e">
         <f>VLOOKUP(A86,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C86" s="67" t="e">
+      <c r="C86" s="58" t="e">
         <f>VLOOKUP(B86,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D86" s="67" t="s">
+      <c r="D86" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E86" s="67"/>
-      <c r="F86" s="68" t="s">
+      <c r="E86" s="58"/>
+      <c r="F86" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="G86" s="70" t="s">
+      <c r="G86" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="H86" s="69" t="s">
+      <c r="H86" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="I86" s="69" t="s">
+      <c r="I86" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="J86" s="81" t="s">
+      <c r="J86" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="K86" s="81" t="s">
+      <c r="K86" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" ht="30" spans="1:11">
-      <c r="A87" s="67" t="s">
+    <row r="87" ht="30" hidden="1" spans="1:11">
+      <c r="A87" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="B87" s="67" t="e">
+      <c r="B87" s="58" t="e">
         <f>VLOOKUP(A87,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C87" s="67" t="e">
+      <c r="C87" s="58" t="e">
         <f>VLOOKUP(B87,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D87" s="67" t="s">
+      <c r="D87" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E87" s="67"/>
-      <c r="F87" s="68" t="s">
+      <c r="E87" s="58"/>
+      <c r="F87" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="G87" s="70" t="s">
+      <c r="G87" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="H87" s="69" t="s">
+      <c r="H87" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="I87" s="69" t="s">
+      <c r="I87" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="J87" s="81"/>
-      <c r="K87" s="81" t="s">
+      <c r="J87" s="71"/>
+      <c r="K87" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" ht="30" spans="1:11">
-      <c r="A88" s="67" t="s">
+    <row r="88" ht="30" hidden="1" spans="1:11">
+      <c r="A88" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="67" t="e">
+      <c r="B88" s="58" t="e">
         <f>VLOOKUP(A88,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C88" s="67" t="e">
+      <c r="C88" s="58" t="e">
         <f>VLOOKUP(B88,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D88" s="67" t="s">
+      <c r="D88" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E88" s="67"/>
-      <c r="F88" s="68" t="s">
+      <c r="E88" s="58"/>
+      <c r="F88" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="G88" s="70" t="s">
+      <c r="G88" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="H88" s="69" t="s">
+      <c r="H88" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="I88" s="69" t="s">
+      <c r="I88" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="J88" s="81"/>
-      <c r="K88" s="81" t="s">
+      <c r="J88" s="71"/>
+      <c r="K88" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" ht="30" spans="1:11">
-      <c r="A89" s="67" t="s">
+    <row r="89" ht="30" hidden="1" spans="1:11">
+      <c r="A89" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="67" t="e">
+      <c r="B89" s="58" t="e">
         <f>VLOOKUP(A89,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C89" s="67" t="e">
+      <c r="C89" s="58" t="e">
         <f>VLOOKUP(B89,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D89" s="67" t="s">
+      <c r="D89" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="68" t="s">
+      <c r="E89" s="58"/>
+      <c r="F89" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="G89" s="70" t="s">
+      <c r="G89" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="H89" s="69" t="s">
+      <c r="H89" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="I89" s="69" t="s">
+      <c r="I89" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="J89" s="81"/>
-      <c r="K89" s="81" t="s">
+      <c r="J89" s="71"/>
+      <c r="K89" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90" ht="30" spans="1:11">
-      <c r="A90" s="67" t="s">
+    <row r="90" ht="30" hidden="1" spans="1:11">
+      <c r="A90" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="B90" s="67" t="e">
+      <c r="B90" s="58" t="e">
         <f>VLOOKUP(A90,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C90" s="67" t="e">
+      <c r="C90" s="58" t="e">
         <f>VLOOKUP(B90,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D90" s="67" t="s">
+      <c r="D90" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="67"/>
-      <c r="F90" s="68" t="s">
+      <c r="E90" s="58"/>
+      <c r="F90" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="G90" s="70" t="s">
+      <c r="G90" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="H90" s="69" t="s">
+      <c r="H90" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="I90" s="69" t="s">
+      <c r="I90" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="J90" s="81"/>
-      <c r="K90" s="81" t="s">
+      <c r="J90" s="71"/>
+      <c r="K90" s="71" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" ht="45" spans="1:11">
-      <c r="A91" s="56" t="s">
+    <row r="91" ht="45" hidden="1" spans="1:11">
+      <c r="A91" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="B91" s="56" t="str">
+      <c r="B91" s="48" t="str">
         <f>VLOOKUP(A91,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_mno_occ</v>
       </c>
-      <c r="C91" s="56" t="str">
+      <c r="C91" s="48" t="str">
         <f>VLOOKUP(B91,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Integer Number</v>
       </c>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="58" t="s">
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H91" s="59" t="s">
+      <c r="H91" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="I91" s="59" t="s">
+      <c r="I91" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J91" s="79" t="s">
+      <c r="J91" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="K91" s="76"/>
-    </row>
-    <row r="92" ht="45" spans="1:11">
-      <c r="A92" s="56" t="s">
+      <c r="K91" s="66"/>
+    </row>
+    <row r="92" ht="45" hidden="1" spans="1:11">
+      <c r="A92" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="B92" s="56" t="str">
+      <c r="B92" s="48" t="str">
         <f>VLOOKUP(A92,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_non_mno_occ</v>
       </c>
-      <c r="C92" s="56" t="str">
+      <c r="C92" s="48" t="str">
         <f>VLOOKUP(B92,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Integer Number</v>
       </c>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="58" t="s">
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H92" s="59" t="s">
+      <c r="H92" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="I92" s="59" t="s">
+      <c r="I92" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J92" s="79" t="s">
+      <c r="J92" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="K92" s="76"/>
-    </row>
-    <row r="93" ht="30" spans="1:11">
-      <c r="A93" s="56" t="s">
+      <c r="K92" s="66"/>
+    </row>
+    <row r="93" ht="30" hidden="1" spans="1:11">
+      <c r="A93" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="B93" s="56" t="str">
+      <c r="B93" s="48" t="str">
         <f>VLOOKUP(A93,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>custrecord_twc_site_occ</v>
       </c>
-      <c r="C93" s="56" t="str">
+      <c r="C93" s="48" t="str">
         <f>VLOOKUP(B93,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>Integer Number</v>
       </c>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="58" t="s">
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H93" s="59" t="s">
+      <c r="H93" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="I93" s="59" t="s">
+      <c r="I93" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J93" s="79" t="s">
+      <c r="J93" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="K93" s="76"/>
+      <c r="K93" s="66"/>
     </row>
     <row r="94" ht="30" spans="1:11">
-      <c r="A94" s="61" t="s">
+      <c r="A94" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="61" t="e">
+      <c r="B94" s="52" t="e">
         <f>VLOOKUP(A94,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C94" s="61" t="e">
+      <c r="C94" s="52" t="e">
         <f>VLOOKUP(B94,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D94" s="73" t="s">
+      <c r="D94" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E94" s="73"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="59" t="s">
+      <c r="E94" s="27"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H94" s="59" t="s">
+      <c r="H94" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I94" s="85" t="s">
+      <c r="I94" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="J94" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K94" s="82" t="s">
+      <c r="J94" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="72" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="95" ht="30" spans="1:11">
-      <c r="A95" s="61" t="s">
+      <c r="A95" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="B95" s="61" t="e">
+      <c r="B95" s="52" t="e">
         <f>VLOOKUP(A95,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C95" s="61" t="e">
+      <c r="C95" s="52" t="e">
         <f>VLOOKUP(B95,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D95" s="73" t="s">
+      <c r="D95" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E95" s="73"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="59" t="s">
+      <c r="E95" s="27"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H95" s="59" t="s">
+      <c r="H95" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I95" s="85" t="s">
+      <c r="I95" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="J95" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K95" s="83"/>
+      <c r="J95" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="73"/>
     </row>
     <row r="96" ht="30" spans="1:11">
-      <c r="A96" s="61" t="s">
+      <c r="A96" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="B96" s="61" t="e">
+      <c r="B96" s="52" t="e">
         <f>VLOOKUP(A96,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C96" s="61" t="e">
+      <c r="C96" s="52" t="e">
         <f>VLOOKUP(B96,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D96" s="73" t="s">
+      <c r="D96" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E96" s="73"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="59" t="s">
+      <c r="E96" s="27"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H96" s="59" t="s">
+      <c r="H96" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I96" s="85" t="s">
+      <c r="I96" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="J96" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K96" s="83"/>
+      <c r="J96" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="73"/>
     </row>
     <row r="97" ht="30" spans="1:11">
-      <c r="A97" s="61" t="s">
+      <c r="A97" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="B97" s="61" t="e">
+      <c r="B97" s="52" t="e">
         <f>VLOOKUP(A97,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C97" s="61" t="e">
+      <c r="C97" s="52" t="e">
         <f>VLOOKUP(B97,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D97" s="73" t="s">
+      <c r="D97" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E97" s="73"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="59" t="s">
+      <c r="E97" s="27"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H97" s="59" t="s">
+      <c r="H97" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I97" s="85" t="s">
+      <c r="I97" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="J97" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K97" s="83"/>
+      <c r="J97" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="73"/>
     </row>
     <row r="98" ht="30" spans="1:11">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="B98" s="61" t="e">
+      <c r="B98" s="52" t="e">
         <f>VLOOKUP(A98,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C98" s="61" t="e">
+      <c r="C98" s="52" t="e">
         <f>VLOOKUP(B98,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D98" s="73" t="s">
+      <c r="D98" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E98" s="73"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="59" t="s">
+      <c r="E98" s="27"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H98" s="59" t="s">
+      <c r="H98" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I98" s="85" t="s">
+      <c r="I98" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="J98" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K98" s="83"/>
+      <c r="J98" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="73"/>
     </row>
     <row r="99" ht="30" spans="1:11">
-      <c r="A99" s="61" t="s">
+      <c r="A99" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="B99" s="61" t="e">
+      <c r="B99" s="52" t="e">
         <f>VLOOKUP(A99,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C99" s="61" t="e">
+      <c r="C99" s="52" t="e">
         <f>VLOOKUP(B99,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D99" s="73" t="s">
+      <c r="D99" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E99" s="73"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="59" t="s">
+      <c r="E99" s="27"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H99" s="59" t="s">
+      <c r="H99" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I99" s="85" t="s">
+      <c r="I99" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="J99" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K99" s="83"/>
+      <c r="J99" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="73"/>
     </row>
     <row r="100" ht="30" spans="1:11">
-      <c r="A100" s="61" t="s">
+      <c r="A100" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="B100" s="61" t="e">
+      <c r="B100" s="52" t="e">
         <f>VLOOKUP(A100,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C100" s="61" t="e">
+      <c r="C100" s="52" t="e">
         <f>VLOOKUP(B100,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D100" s="73" t="s">
+      <c r="D100" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E100" s="73"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="59" t="s">
+      <c r="E100" s="27"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H100" s="59" t="s">
+      <c r="H100" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I100" s="85" t="s">
+      <c r="I100" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="J100" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K100" s="83"/>
+      <c r="J100" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="73"/>
     </row>
     <row r="101" ht="30" spans="1:11">
-      <c r="A101" s="61" t="s">
+      <c r="A101" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B101" s="61" t="e">
+      <c r="B101" s="52" t="e">
         <f>VLOOKUP(A101,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C101" s="61" t="e">
+      <c r="C101" s="52" t="e">
         <f>VLOOKUP(B101,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D101" s="73" t="s">
+      <c r="D101" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E101" s="73"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="59" t="s">
+      <c r="E101" s="27"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H101" s="59" t="s">
+      <c r="H101" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I101" s="59" t="s">
+      <c r="I101" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J101" s="76" t="s">
+      <c r="J101" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K101" s="83"/>
+      <c r="K101" s="73"/>
     </row>
     <row r="102" ht="30" spans="1:11">
-      <c r="A102" s="61" t="s">
+      <c r="A102" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="B102" s="61" t="e">
+      <c r="B102" s="52" t="e">
         <f>VLOOKUP(A102,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C102" s="61" t="e">
+      <c r="C102" s="52" t="e">
         <f>VLOOKUP(B102,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D102" s="73" t="s">
+      <c r="D102" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E102" s="73"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="59" t="s">
+      <c r="E102" s="27"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H102" s="59" t="s">
+      <c r="H102" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I102" s="86" t="s">
+      <c r="I102" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="J102" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K102" s="83"/>
+      <c r="J102" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="73"/>
     </row>
     <row r="103" ht="30" spans="1:11">
-      <c r="A103" s="61" t="s">
+      <c r="A103" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="61" t="e">
+      <c r="B103" s="52" t="e">
         <f>VLOOKUP(A103,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C103" s="61" t="e">
+      <c r="C103" s="52" t="e">
         <f>VLOOKUP(B103,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D103" s="73" t="s">
+      <c r="D103" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E103" s="73"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="59" t="s">
+      <c r="E103" s="27"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H103" s="59" t="s">
+      <c r="H103" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I103" s="59" t="s">
+      <c r="I103" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J103" s="76" t="s">
+      <c r="J103" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K103" s="83"/>
+      <c r="K103" s="73"/>
     </row>
     <row r="104" ht="30" spans="1:11">
-      <c r="A104" s="61" t="s">
+      <c r="A104" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="B104" s="61" t="e">
+      <c r="B104" s="52" t="e">
         <f>VLOOKUP(A104,'SITE Fields NS'!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C104" s="61" t="e">
+      <c r="C104" s="52" t="e">
         <f>VLOOKUP(B104,'SITE Fields NS'!C:E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D104" s="73" t="s">
+      <c r="D104" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E104" s="73"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="59" t="s">
+      <c r="E104" s="27"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="H104" s="59" t="s">
+      <c r="H104" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="I104" s="86" t="s">
+      <c r="I104" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="J104" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K104" s="84"/>
+      <c r="J104" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="74"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K104">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="create field"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="4">
@@ -6805,1223 +6697,1223 @@
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="34"/>
-    <col min="2" max="2" width="34" style="44" customWidth="1"/>
-    <col min="3" max="3" width="42.7142857142857" style="44" customWidth="1"/>
-    <col min="4" max="4" width="9.71428571428571" style="44" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="44" customWidth="1"/>
-    <col min="6" max="6" width="21.5714285714286" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="10.2857142857143" style="44"/>
+    <col min="2" max="2" width="34" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.7142857142857" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.71428571428571" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.5714285714286" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.2857142857143" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="1" spans="1:6">
-      <c r="A1" s="43" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" s="44" customFormat="1" spans="1:6">
-      <c r="A2" s="44" t="str">
+    <row r="2" s="3" customFormat="1" spans="1:6">
+      <c r="A2" s="3" t="str">
         <f>VLOOKUP(B2,'SITE Fields'!A:A,1,FALSE)</f>
         <v>RADIX Site Table entry number</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="3" s="44" customFormat="1" spans="1:6">
-      <c r="A3" s="44" t="str">
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="3" t="str">
         <f>VLOOKUP(B3,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Site ID</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" s="44" customFormat="1" spans="1:6">
-      <c r="A4" s="44" t="str">
+    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="A4" s="3" t="str">
         <f>VLOOKUP(B4,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Site Name</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="5" s="44" customFormat="1" spans="1:6">
-      <c r="A5" s="44" t="str">
+    <row r="5" s="3" customFormat="1" spans="1:6">
+      <c r="A5" s="3" t="str">
         <f>VLOOKUP(B5,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Alias</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" s="44" customFormat="1" spans="1:6">
-      <c r="A6" s="44" t="str">
+    <row r="6" s="3" customFormat="1" spans="1:6">
+      <c r="A6" s="3" t="str">
         <f>VLOOKUP(B6,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Site Status</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="3">
         <v>710</v>
       </c>
     </row>
-    <row r="7" s="44" customFormat="1" spans="1:6">
-      <c r="A7" s="44" t="str">
+    <row r="7" s="3" customFormat="1" spans="1:6">
+      <c r="A7" s="3" t="str">
         <f>VLOOKUP(B7,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Site Type</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="3">
         <v>712</v>
       </c>
     </row>
-    <row r="8" s="44" customFormat="1" spans="1:6">
-      <c r="A8" s="44" t="str">
+    <row r="8" s="3" customFormat="1" spans="1:6">
+      <c r="A8" s="3" t="str">
         <f>VLOOKUP(B8,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Multi Mast Sites</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" s="44" customFormat="1" spans="1:6">
-      <c r="A9" s="44" t="str">
+    <row r="9" s="3" customFormat="1" spans="1:6">
+      <c r="A9" s="3" t="str">
         <f>VLOOKUP(B9,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Old ID</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" s="44" customFormat="1" spans="1:6">
-      <c r="A10" s="44" t="str">
+    <row r="10" s="3" customFormat="1" spans="1:6">
+      <c r="A10" s="3" t="str">
         <f>VLOOKUP(B10,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Height ASL (m)</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" s="44" customFormat="1" spans="1:6">
-      <c r="A11" s="44" t="str">
+    <row r="11" s="3" customFormat="1" spans="1:6">
+      <c r="A11" s="3" t="str">
         <f>VLOOKUP(B11,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Site Level</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="3">
         <v>713</v>
       </c>
     </row>
-    <row r="12" s="44" customFormat="1" spans="1:6">
-      <c r="A12" s="44" t="str">
+    <row r="12" s="3" customFormat="1" spans="1:6">
+      <c r="A12" s="3" t="str">
         <f>VLOOKUP(B12,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Portfolio</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="3">
         <v>714</v>
       </c>
     </row>
-    <row r="13" s="44" customFormat="1" spans="1:6">
-      <c r="A13" s="44" t="str">
+    <row r="13" s="3" customFormat="1" spans="1:6">
+      <c r="A13" s="3" t="str">
         <f>VLOOKUP(B13,'SITE Fields'!A:A,1,FALSE)</f>
         <v>SRF Status</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="3">
         <v>697</v>
       </c>
     </row>
-    <row r="14" s="44" customFormat="1" spans="1:6">
-      <c r="A14" s="44" t="str">
+    <row r="14" s="3" customFormat="1" spans="1:6">
+      <c r="A14" s="3" t="str">
         <f>VLOOKUP(B14,'SITE Fields'!A:A,1,FALSE)</f>
         <v>SAF Status</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="3">
         <v>698</v>
       </c>
     </row>
-    <row r="15" s="44" customFormat="1" spans="1:6">
-      <c r="A15" s="44" t="str">
+    <row r="15" s="3" customFormat="1" spans="1:6">
+      <c r="A15" s="3" t="str">
         <f>VLOOKUP(B15,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Public</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="3">
         <v>684</v>
       </c>
     </row>
-    <row r="16" s="44" customFormat="1" spans="1:6">
-      <c r="A16" s="44" t="str">
+    <row r="16" s="3" customFormat="1" spans="1:6">
+      <c r="A16" s="3" t="str">
         <f>VLOOKUP(B16,'SITE Fields'!A:A,1,FALSE)</f>
         <v>BTS Status</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="3">
         <v>715</v>
       </c>
     </row>
-    <row r="17" s="44" customFormat="1" spans="1:6">
-      <c r="A17" s="44" t="str">
+    <row r="17" s="3" customFormat="1" spans="1:6">
+      <c r="A17" s="3" t="str">
         <f>VLOOKUP(B17,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Address</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" s="44" customFormat="1" spans="1:6">
-      <c r="A18" s="44" t="str">
+    <row r="18" s="3" customFormat="1" spans="1:6">
+      <c r="A18" s="3" t="str">
         <f>VLOOKUP(B18,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Easting</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" s="44" customFormat="1" spans="1:6">
-      <c r="A19" s="44" t="str">
+    <row r="19" s="3" customFormat="1" spans="1:6">
+      <c r="A19" s="3" t="str">
         <f>VLOOKUP(B19,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Northing</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" s="44" customFormat="1" spans="1:6">
-      <c r="A20" s="44" t="str">
+    <row r="20" s="3" customFormat="1" spans="1:6">
+      <c r="A20" s="3" t="str">
         <f>VLOOKUP(B20,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Longitude</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" s="44" customFormat="1" spans="1:6">
-      <c r="A21" s="44" t="str">
+    <row r="21" s="3" customFormat="1" spans="1:6">
+      <c r="A21" s="3" t="str">
         <f>VLOOKUP(B21,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Latitude</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" s="44" customFormat="1" spans="1:6">
-      <c r="A22" s="44" t="str">
+    <row r="22" s="3" customFormat="1" spans="1:6">
+      <c r="A22" s="3" t="str">
         <f>VLOOKUP(B22,'SITE Fields'!A:A,1,FALSE)</f>
         <v>SAF Auto Approve</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" s="44" customFormat="1" spans="1:6">
-      <c r="A23" s="44" t="str">
+    <row r="23" s="3" customFormat="1" spans="1:6">
+      <c r="A23" s="3" t="str">
         <f>VLOOKUP(B23,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Track Type</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="3">
         <v>716</v>
       </c>
     </row>
-    <row r="24" s="44" customFormat="1" spans="1:6">
-      <c r="A24" s="44" t="str">
+    <row r="24" s="3" customFormat="1" spans="1:6">
+      <c r="A24" s="3" t="str">
         <f>VLOOKUP(B24,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Easting (Access)</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="25" s="44" customFormat="1" spans="1:6">
-      <c r="A25" s="44" t="str">
+    <row r="25" s="3" customFormat="1" spans="1:6">
+      <c r="A25" s="3" t="str">
         <f>VLOOKUP(B25,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Northing (Access)</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" s="44" customFormat="1" spans="1:6">
-      <c r="A26" s="44" t="str">
+    <row r="26" s="3" customFormat="1" spans="1:6">
+      <c r="A26" s="3" t="str">
         <f>VLOOKUP(B26,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Longitude (Access)</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="27" s="44" customFormat="1" spans="1:6">
-      <c r="A27" s="44" t="str">
+    <row r="27" s="3" customFormat="1" spans="1:6">
+      <c r="A27" s="3" t="str">
         <f>VLOOKUP(B27,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Latitude (Access)</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" s="44" customFormat="1" spans="1:6">
-      <c r="A28" s="44" t="str">
+    <row r="28" s="3" customFormat="1" spans="1:6">
+      <c r="A28" s="3" t="str">
         <f>VLOOKUP(B28,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Directions</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" s="44" customFormat="1" spans="1:6">
-      <c r="A29" s="44" t="str">
+    <row r="29" s="3" customFormat="1" spans="1:6">
+      <c r="A29" s="3" t="str">
         <f>VLOOKUP(B29,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Instructions</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="30" s="44" customFormat="1" spans="1:6">
-      <c r="A30" s="44" t="str">
+    <row r="30" s="3" customFormat="1" spans="1:6">
+      <c r="A30" s="3" t="str">
         <f>VLOOKUP(B30,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Tenant Card Required</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" s="44" customFormat="1" spans="1:6">
-      <c r="A31" s="44" t="str">
+    <row r="31" s="3" customFormat="1" spans="1:6">
+      <c r="A31" s="3" t="str">
         <f>VLOOKUP(B31,'SITE Fields'!A:A,1,FALSE)</f>
         <v>4x4 Required</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" s="44" customFormat="1" spans="1:6">
-      <c r="A32" s="44" t="str">
+    <row r="32" s="3" customFormat="1" spans="1:6">
+      <c r="A32" s="3" t="str">
         <f>VLOOKUP(B32,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Parking Restrictions</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="33" s="44" customFormat="1" spans="1:6">
-      <c r="A33" s="44" t="str">
+    <row r="33" s="3" customFormat="1" spans="1:6">
+      <c r="A33" s="3" t="str">
         <f>VLOOKUP(B33,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Crane/Mewp Access</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" s="44" customFormat="1" spans="1:6">
-      <c r="A34" s="44" t="str">
+    <row r="34" s="3" customFormat="1" spans="1:6">
+      <c r="A34" s="3" t="str">
         <f>VLOOKUP(B34,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Safety / Special Notes</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" s="44" customFormat="1" spans="1:6">
-      <c r="A35" s="44" t="str">
+    <row r="35" s="3" customFormat="1" spans="1:6">
+      <c r="A35" s="3" t="str">
         <f>VLOOKUP(B35,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Full Demised Area Fenced</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" s="44" customFormat="1" spans="1:6">
-      <c r="A36" s="44" t="str">
+    <row r="36" s="3" customFormat="1" spans="1:6">
+      <c r="A36" s="3" t="str">
         <f>VLOOKUP(B36,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Adjacent Ground Space</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="37" s="44" customFormat="1" spans="1:6">
-      <c r="A37" s="44" t="str">
+    <row r="37" s="3" customFormat="1" spans="1:6">
+      <c r="A37" s="3" t="str">
         <f>VLOOKUP(B37,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Adjacent Ground Owner</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="38" s="44" customFormat="1" spans="1:6">
-      <c r="A38" s="44" t="str">
+    <row r="38" s="3" customFormat="1" spans="1:6">
+      <c r="A38" s="3" t="str">
         <f>VLOOKUP(B38,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Perimeter Type</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="3">
         <v>717</v>
       </c>
     </row>
-    <row r="39" s="44" customFormat="1" spans="1:6">
-      <c r="A39" s="44" t="str">
+    <row r="39" s="3" customFormat="1" spans="1:6">
+      <c r="A39" s="3" t="str">
         <f>VLOOKUP(B39,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Fence Height (m)</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="40" s="44" customFormat="1" spans="1:6">
-      <c r="A40" s="44" t="str">
+    <row r="40" s="3" customFormat="1" spans="1:6">
+      <c r="A40" s="3" t="str">
         <f>VLOOKUP(B40,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Independent Power Supplies</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" s="44" customFormat="1" spans="1:6">
-      <c r="A41" s="44" t="str">
+    <row r="41" s="3" customFormat="1" spans="1:6">
+      <c r="A41" s="3" t="str">
         <f>VLOOKUP(B41,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Next Generator Service</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="42" s="44" customFormat="1" spans="1:6">
-      <c r="A42" s="44" t="str">
+    <row r="42" s="3" customFormat="1" spans="1:6">
+      <c r="A42" s="3" t="str">
         <f>VLOOKUP(B42,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Next Earth &amp; LP Test</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="43" s="44" customFormat="1" spans="1:6">
-      <c r="A43" s="44" t="str">
+    <row r="43" s="3" customFormat="1" spans="1:6">
+      <c r="A43" s="3" t="str">
         <f>VLOOKUP(B43,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Next Structure Inspection Date</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44" s="44" customFormat="1" spans="1:6">
-      <c r="A44" s="44" t="str">
+    <row r="44" s="3" customFormat="1" spans="1:6">
+      <c r="A44" s="3" t="str">
         <f>VLOOKUP(B44,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Next Fall Arrest Certification Date</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="45" s="44" customFormat="1" spans="1:6">
-      <c r="A45" s="44" t="str">
+    <row r="45" s="3" customFormat="1" spans="1:6">
+      <c r="A45" s="3" t="str">
         <f>VLOOKUP(B45,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Next Tower Painting Date</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="46" s="44" customFormat="1" spans="1:6">
-      <c r="A46" s="44" t="str">
+    <row r="46" s="3" customFormat="1" spans="1:6">
+      <c r="A46" s="3" t="str">
         <f>VLOOKUP(B46,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Next Aircon Service Date</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E46" s="44" t="s">
+      <c r="E46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" s="44" customFormat="1" spans="1:6">
-      <c r="A47" s="44" t="str">
+    <row r="47" s="3" customFormat="1" spans="1:6">
+      <c r="A47" s="3" t="str">
         <f>VLOOKUP(B47,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Next Fire Service Date</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" s="44" customFormat="1" spans="1:6">
-      <c r="A48" s="44" t="str">
+    <row r="48" s="3" customFormat="1" spans="1:6">
+      <c r="A48" s="3" t="str">
         <f>VLOOKUP(B48,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Next Alarm Service Date</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="49" s="44" customFormat="1" spans="1:6">
-      <c r="A49" s="44" t="str">
+    <row r="49" s="3" customFormat="1" spans="1:6">
+      <c r="A49" s="3" t="str">
         <f>VLOOKUP(B49,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Marketing Status</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E49" s="44" t="s">
+      <c r="E49" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="50" s="44" customFormat="1" spans="1:6">
-      <c r="A50" s="44" t="str">
+    <row r="50" s="3" customFormat="1" spans="1:6">
+      <c r="A50" s="3" t="str">
         <f>VLOOKUP(B50,'SITE Fields'!A:A,1,FALSE)</f>
         <v>MNO Occupancy</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D50" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="51" s="44" customFormat="1" spans="1:6">
-      <c r="A51" s="44" t="str">
+    <row r="51" s="3" customFormat="1" spans="1:6">
+      <c r="A51" s="3" t="str">
         <f>VLOOKUP(B51,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Non-MNO Occupancy</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" s="44" customFormat="1" spans="1:6">
-      <c r="A52" s="44" t="str">
+    <row r="52" s="3" customFormat="1" spans="1:6">
+      <c r="A52" s="3" t="str">
         <f>VLOOKUP(B52,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Occupancy</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" s="44" customFormat="1" spans="1:6">
-      <c r="A53" s="44" t="str">
+    <row r="53" s="3" customFormat="1" spans="1:6">
+      <c r="A53" s="3" t="str">
         <f>VLOOKUP(B53,'SITE Fields'!A:A,1,FALSE)</f>
         <v>What3Words</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="D53" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E53" s="44" t="s">
+      <c r="E53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="54" s="44" customFormat="1" spans="1:6">
-      <c r="A54" s="44" t="str">
+    <row r="54" s="3" customFormat="1" spans="1:6">
+      <c r="A54" s="3" t="str">
         <f>VLOOKUP(B54,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Access What3Words</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="55" s="44" customFormat="1" spans="1:6">
-      <c r="A55" s="44" t="str">
+    <row r="55" s="3" customFormat="1" spans="1:6">
+      <c r="A55" s="3" t="str">
         <f>VLOOKUP(B55,'SITE Fields'!A:A,1,FALSE)</f>
         <v>Eircode</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E55" s="44" t="s">
+      <c r="E55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="F55" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="56" s="44" customFormat="1" spans="1:6">
-      <c r="A56" s="44" t="str">
+    <row r="56" s="3" customFormat="1" spans="1:6">
+      <c r="A56" s="3" t="str">
         <f>VLOOKUP(B56,'SITE Fields'!A:A,1,FALSE)</f>
         <v>County</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E56" s="44" t="s">
+      <c r="E56" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F56" s="44">
+      <c r="F56" s="3">
         <v>-195</v>
       </c>
     </row>
-    <row r="57" s="44" customFormat="1" spans="1:6">
-      <c r="A57" s="44" t="e">
+    <row r="57" s="3" customFormat="1" spans="1:6">
+      <c r="A57" s="3" t="e">
         <f>VLOOKUP(B57,'SITE Fields'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F57" s="44">
+      <c r="F57" s="3">
         <v>740</v>
       </c>
     </row>
-    <row r="58" s="44" customFormat="1"/>
-    <row r="59" s="44" customFormat="1"/>
-    <row r="60" s="44" customFormat="1"/>
-    <row r="61" s="44" customFormat="1"/>
-    <row r="62" s="44" customFormat="1"/>
-    <row r="63" s="44" customFormat="1"/>
-    <row r="64" s="44" customFormat="1"/>
-    <row r="65" s="44" customFormat="1"/>
-    <row r="66" s="44" customFormat="1"/>
-    <row r="67" s="44" customFormat="1"/>
-    <row r="68" s="44" customFormat="1"/>
-    <row r="69" s="44" customFormat="1"/>
-    <row r="70" s="44" customFormat="1"/>
+    <row r="58" s="3" customFormat="1"/>
+    <row r="59" s="3" customFormat="1"/>
+    <row r="60" s="3" customFormat="1"/>
+    <row r="61" s="3" customFormat="1"/>
+    <row r="62" s="3" customFormat="1"/>
+    <row r="63" s="3" customFormat="1"/>
+    <row r="64" s="3" customFormat="1"/>
+    <row r="65" s="3" customFormat="1"/>
+    <row r="66" s="3" customFormat="1"/>
+    <row r="67" s="3" customFormat="1"/>
+    <row r="68" s="3" customFormat="1"/>
+    <row r="69" s="3" customFormat="1"/>
+    <row r="70" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8035,12 +7927,12 @@
   </sheetPr>
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -8061,7 +7953,7 @@
     <col min="14" max="16384" width="10.447619047619" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="47.25" customHeight="1" spans="1:13">
+    <row r="1" s="25" customFormat="1" ht="47.25" customHeight="1" spans="1:13">
       <c r="A1" s="21" t="s">
         <v>282</v>
       </c>
@@ -8646,7 +8538,7 @@
         <f>VLOOKUP(A16,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="15"/>
@@ -8659,7 +8551,7 @@
       <c r="H16" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="29" t="s">
         <v>97</v>
       </c>
       <c r="J16" s="22" t="s">
@@ -8687,7 +8579,7 @@
         <f>VLOOKUP(A17,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="15"/>
@@ -8698,7 +8590,7 @@
       <c r="H17" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="29" t="s">
         <v>314</v>
       </c>
       <c r="J17" s="22"/>
@@ -8778,7 +8670,7 @@
       <c r="J19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K19" s="30" t="s">
         <v>318</v>
       </c>
       <c r="L19" s="12">
@@ -8817,7 +8709,7 @@
       <c r="J20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="35"/>
+      <c r="K20" s="31"/>
       <c r="L20" s="12">
         <v>25</v>
       </c>
@@ -8854,7 +8746,7 @@
       <c r="J21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="12">
         <v>26</v>
       </c>
@@ -8891,7 +8783,7 @@
       <c r="J22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="36"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="12">
         <v>27</v>
       </c>
@@ -8936,42 +8828,42 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" s="27" customFormat="1" hidden="1" spans="1:13">
-      <c r="A24" s="29" t="s">
+    <row r="24" s="3" customFormat="1" hidden="1" spans="1:13">
+      <c r="A24" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B24" s="29" t="str">
+      <c r="B24" s="11" t="str">
         <f>VLOOKUP(A24,'INFRASTRUCTURE Fields NS'!B:F,1,FALSE)</f>
         <v>Tower Family</v>
       </c>
-      <c r="C24" s="29" t="str">
+      <c r="C24" s="11" t="str">
         <f>VLOOKUP(A24,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>Free-Form Text</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="K24" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="30">
+      <c r="K24" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="12">
         <v>16</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M24" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9100,7 +8992,7 @@
         <f>VLOOKUP(A28,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="15"/>
@@ -9113,7 +9005,7 @@
       <c r="H28" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="29" t="s">
         <v>329</v>
       </c>
       <c r="J28" s="22" t="s">
@@ -9449,7 +9341,7 @@
         <f>VLOOKUP(A37,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="15"/>
@@ -9462,7 +9354,7 @@
       <c r="H37" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="I37" s="33" t="s">
+      <c r="I37" s="29" t="s">
         <v>150</v>
       </c>
       <c r="J37" s="22" t="s">
@@ -9534,11 +9426,11 @@
       <c r="H39" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="33" t="s">
         <v>199</v>
       </c>
       <c r="J39" s="22"/>
-      <c r="K39" s="40" t="s">
+      <c r="K39" s="34" t="s">
         <v>347</v>
       </c>
       <c r="L39" s="12" t="s">
@@ -10199,7 +10091,7 @@
         <f>VLOOKUP(A59,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="15"/>
@@ -10212,7 +10104,7 @@
       <c r="H59" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="I59" s="33" t="s">
+      <c r="I59" s="29" t="s">
         <v>374</v>
       </c>
       <c r="J59" s="22" t="s">
@@ -10228,36 +10120,34 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="31" t="s">
+    <row r="60" hidden="1" spans="1:13">
+      <c r="A60" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="B60" s="31" t="e">
+      <c r="B60" s="27" t="e">
         <f>VLOOKUP(A60,'INFRASTRUCTURE Fields NS'!B:F,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C60" s="31" t="e">
+      <c r="C60" s="27" t="e">
         <f>VLOOKUP(A60,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D60" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="32" t="s">
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H60" s="32" t="s">
+      <c r="H60" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I60" s="41" t="s">
+      <c r="I60" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J60" s="40" t="s">
+      <c r="J60" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="40" t="s">
+      <c r="K60" s="34" t="s">
         <v>377</v>
       </c>
       <c r="L60" s="12" t="s">
@@ -10267,36 +10157,34 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="31" t="s">
+    <row r="61" hidden="1" spans="1:13">
+      <c r="A61" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="B61" s="31" t="e">
+      <c r="B61" s="27" t="e">
         <f>VLOOKUP(A61,'INFRASTRUCTURE Fields NS'!B:F,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C61" s="31" t="e">
+      <c r="C61" s="27" t="e">
         <f>VLOOKUP(A61,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D61" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="32" t="s">
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="H61" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I61" s="41" t="s">
+      <c r="I61" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J61" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="40" t="s">
+      <c r="J61" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="34" t="s">
         <v>377</v>
       </c>
       <c r="L61" s="12" t="s">
@@ -10306,36 +10194,34 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="31" t="s">
+    <row r="62" hidden="1" spans="1:13">
+      <c r="A62" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="B62" s="31" t="e">
+      <c r="B62" s="27" t="e">
         <f>VLOOKUP(A62,'INFRASTRUCTURE Fields NS'!B:F,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C62" s="31" t="e">
+      <c r="C62" s="27" t="e">
         <f>VLOOKUP(A62,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D62" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="32" t="s">
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="H62" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I62" s="41" t="s">
+      <c r="I62" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J62" s="40" t="s">
+      <c r="J62" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="K62" s="40" t="s">
+      <c r="K62" s="34" t="s">
         <v>377</v>
       </c>
       <c r="L62" s="12" t="s">
@@ -10345,36 +10231,34 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="31" t="s">
+    <row r="63" hidden="1" spans="1:13">
+      <c r="A63" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="B63" s="31" t="e">
+      <c r="B63" s="27" t="e">
         <f>VLOOKUP(A63,'INFRASTRUCTURE Fields NS'!B:F,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C63" s="31" t="e">
+      <c r="C63" s="27" t="e">
         <f>VLOOKUP(A63,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D63" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32" t="s">
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="H63" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I63" s="41" t="s">
+      <c r="I63" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="J63" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="40" t="s">
+      <c r="J63" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="34" t="s">
         <v>377</v>
       </c>
       <c r="L63" s="12" t="s">
@@ -10695,7 +10579,7 @@
         <v>14</v>
       </c>
       <c r="J72" s="22"/>
-      <c r="K72" s="42" t="s">
+      <c r="K72" s="36" t="s">
         <v>396</v>
       </c>
       <c r="L72" s="12">
@@ -10921,7 +10805,7 @@
         <f>VLOOKUP(A79,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E79" s="15"/>
@@ -10932,7 +10816,7 @@
       <c r="H79" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="I79" s="33" t="s">
+      <c r="I79" s="29" t="s">
         <v>407</v>
       </c>
       <c r="J79" s="22"/>
@@ -11385,7 +11269,7 @@
         <f>VLOOKUP(A91,'INFRASTRUCTURE Fields NS'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E91" s="15"/>
@@ -11396,7 +11280,7 @@
       <c r="H91" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I91" s="33" t="s">
+      <c r="I91" s="29" t="s">
         <v>427</v>
       </c>
       <c r="J91" s="22"/>
@@ -11515,7 +11399,7 @@
     <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" spans="2:6">
+    <row r="1" s="1" customFormat="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>431</v>
       </c>
@@ -13194,9 +13078,9 @@
   </sheetData>
   <autoFilter ref="A1:H80">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Accomodation Type"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="Accomodation Type"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -13207,12 +13091,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="8" tint="0.399975585192419"/>
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
@@ -13262,7 +13146,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" hidden="1" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>288</v>
       </c>
@@ -13288,7 +13172,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" hidden="1" spans="1:10">
       <c r="A3" s="11" t="s">
         <v>546</v>
       </c>
@@ -13308,7 +13192,7 @@
       </c>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" ht="30" spans="1:10">
+    <row r="4" ht="30" hidden="1" spans="1:10">
       <c r="A4" s="11" t="s">
         <v>548</v>
       </c>
@@ -13328,7 +13212,7 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" hidden="1" spans="1:10">
       <c r="A5" s="15" t="s">
         <v>550</v>
       </c>
@@ -13352,7 +13236,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" hidden="1" spans="1:10">
       <c r="A6" s="11" t="s">
         <v>553</v>
       </c>
@@ -13370,7 +13254,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" hidden="1" spans="1:10">
       <c r="A7" s="11" t="s">
         <v>554</v>
       </c>
@@ -13432,7 +13316,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" hidden="1" spans="1:10">
       <c r="A10" s="11" t="s">
         <v>560</v>
       </c>
@@ -13470,7 +13354,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" hidden="1" spans="1:10">
       <c r="A12" s="19" t="s">
         <v>562</v>
       </c>
@@ -13490,7 +13374,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" hidden="1" spans="1:10">
       <c r="A13" s="19" t="s">
         <v>563</v>
       </c>
@@ -13510,7 +13394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" hidden="1" spans="1:10">
       <c r="A14" s="19" t="s">
         <v>564</v>
       </c>
@@ -13530,7 +13414,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" hidden="1" spans="1:10">
       <c r="A15" s="19" t="s">
         <v>565</v>
       </c>
@@ -13550,7 +13434,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" hidden="1" spans="1:10">
       <c r="A16" s="19" t="s">
         <v>566</v>
       </c>
@@ -13570,7 +13454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" hidden="1" spans="1:10">
       <c r="A17" s="19" t="s">
         <v>567</v>
       </c>
@@ -13590,7 +13474,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" hidden="1" spans="1:10">
       <c r="A18" s="19" t="s">
         <v>568</v>
       </c>
@@ -13636,6 +13520,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J18">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="create field"/>
+        <filter val="create field &amp; Lock Config Table"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
